--- a/maestro.xlsx
+++ b/maestro.xlsx
@@ -11849,7 +11849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E113"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11857,6 +11857,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -11864,6 +11865,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -11871,6 +11873,9 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -12003,6 +12008,9 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -12010,6 +12018,7 @@
         </is>
       </c>
     </row>
+    <row r="18"/>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
@@ -12017,6 +12026,9 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
@@ -12149,6 +12161,8 @@
         </is>
       </c>
     </row>
+    <row r="29"/>
+    <row r="30"/>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
@@ -12156,6 +12170,7 @@
         </is>
       </c>
     </row>
+    <row r="32"/>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
@@ -12163,6 +12178,9 @@
         </is>
       </c>
     </row>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
@@ -12295,6 +12313,8 @@
         </is>
       </c>
     </row>
+    <row r="43"/>
+    <row r="44"/>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
@@ -12302,6 +12322,7 @@
         </is>
       </c>
     </row>
+    <row r="46"/>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
@@ -12309,6 +12330,9 @@
         </is>
       </c>
     </row>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
@@ -12441,6 +12465,8 @@
         </is>
       </c>
     </row>
+    <row r="57"/>
+    <row r="58"/>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
@@ -12448,6 +12474,7 @@
         </is>
       </c>
     </row>
+    <row r="60"/>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
@@ -12455,6 +12482,9 @@
         </is>
       </c>
     </row>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
@@ -12587,6 +12617,8 @@
         </is>
       </c>
     </row>
+    <row r="71"/>
+    <row r="72"/>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
@@ -12594,6 +12626,7 @@
         </is>
       </c>
     </row>
+    <row r="74"/>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
@@ -12601,6 +12634,9 @@
         </is>
       </c>
     </row>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
@@ -26391,7 +26427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1081"/>
+  <dimension ref="A1:H1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51574,7 +51610,7 @@
         <v>0</v>
       </c>
       <c r="G812" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="813">
@@ -51605,7 +51641,7 @@
         <v>0</v>
       </c>
       <c r="G813" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="814">
@@ -51636,7 +51672,7 @@
         <v>0</v>
       </c>
       <c r="G814" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="815">
@@ -51667,7 +51703,7 @@
         <v>0</v>
       </c>
       <c r="G815" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="816">
@@ -51698,7 +51734,7 @@
         <v>0</v>
       </c>
       <c r="G816" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="817">
@@ -51729,7 +51765,7 @@
         <v>0</v>
       </c>
       <c r="G817" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="818">
@@ -51760,7 +51796,7 @@
         <v>0</v>
       </c>
       <c r="G818" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="819">
@@ -51791,7 +51827,7 @@
         <v>0</v>
       </c>
       <c r="G819" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="820">
@@ -51822,7 +51858,7 @@
         <v>0</v>
       </c>
       <c r="G820" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="821">
@@ -51847,13 +51883,13 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1187184</v>
+        <v>1250355</v>
       </c>
       <c r="F821" t="n">
         <v>0</v>
       </c>
       <c r="G821" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="822">
@@ -51909,13 +51945,13 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1188234</v>
+        <v>1255606</v>
       </c>
       <c r="F823" t="n">
         <v>0</v>
       </c>
       <c r="G823" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="824">
@@ -52033,13 +52069,13 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1189069</v>
+        <v>1252569</v>
       </c>
       <c r="F827" t="n">
         <v>0</v>
       </c>
       <c r="G827" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="828">
@@ -52101,7 +52137,7 @@
         <v>0</v>
       </c>
       <c r="G829" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="830">
@@ -52132,7 +52168,7 @@
         <v>0</v>
       </c>
       <c r="G830" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="831">
@@ -52163,7 +52199,7 @@
         <v>0</v>
       </c>
       <c r="G831" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="832">
@@ -52194,7 +52230,7 @@
         <v>0</v>
       </c>
       <c r="G832" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="833">
@@ -52225,7 +52261,7 @@
         <v>0</v>
       </c>
       <c r="G833" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="834">
@@ -52256,7 +52292,7 @@
         <v>0</v>
       </c>
       <c r="G834" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="835">
@@ -52287,7 +52323,7 @@
         <v>0</v>
       </c>
       <c r="G835" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="836">
@@ -52318,7 +52354,7 @@
         <v>0</v>
       </c>
       <c r="G836" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="837">
@@ -52349,7 +52385,7 @@
         <v>0</v>
       </c>
       <c r="G837" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="838">
@@ -52380,7 +52416,7 @@
         <v>0</v>
       </c>
       <c r="G838" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="839">
@@ -52411,7 +52447,7 @@
         <v>0</v>
       </c>
       <c r="G839" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="840">
@@ -52442,7 +52478,7 @@
         <v>0</v>
       </c>
       <c r="G840" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="841">
@@ -52473,7 +52509,7 @@
         <v>0</v>
       </c>
       <c r="G841" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="842">
@@ -52504,7 +52540,7 @@
         <v>0</v>
       </c>
       <c r="G842" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="843">
@@ -52535,7 +52571,7 @@
         <v>0</v>
       </c>
       <c r="G843" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="844">
@@ -52566,7 +52602,7 @@
         <v>0</v>
       </c>
       <c r="G844" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="845">
@@ -52597,7 +52633,7 @@
         <v>0</v>
       </c>
       <c r="G845" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="846">
@@ -52628,7 +52664,7 @@
         <v>0</v>
       </c>
       <c r="G846" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="847">
@@ -52659,7 +52695,7 @@
         <v>0</v>
       </c>
       <c r="G847" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="848">
@@ -52690,7 +52726,7 @@
         <v>0</v>
       </c>
       <c r="G848" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="849">
@@ -52721,7 +52757,7 @@
         <v>0</v>
       </c>
       <c r="G849" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="850">
@@ -52752,7 +52788,7 @@
         <v>0</v>
       </c>
       <c r="G850" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="851">
@@ -52783,7 +52819,7 @@
         <v>0</v>
       </c>
       <c r="G851" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="852">
@@ -52814,7 +52850,7 @@
         <v>0</v>
       </c>
       <c r="G852" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="853">
@@ -52845,7 +52881,7 @@
         <v>0</v>
       </c>
       <c r="G853" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="854">
@@ -52876,7 +52912,7 @@
         <v>0</v>
       </c>
       <c r="G854" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="855">
@@ -52907,7 +52943,7 @@
         <v>0</v>
       </c>
       <c r="G855" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="856">
@@ -52938,7 +52974,7 @@
         <v>0</v>
       </c>
       <c r="G856" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="857">
@@ -52969,7 +53005,7 @@
         <v>0</v>
       </c>
       <c r="G857" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="858">
@@ -53000,7 +53036,7 @@
         <v>0</v>
       </c>
       <c r="G858" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="859">
@@ -53031,7 +53067,7 @@
         <v>0</v>
       </c>
       <c r="G859" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="860">
@@ -53062,7 +53098,7 @@
         <v>0</v>
       </c>
       <c r="G860" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="861">
@@ -53093,7 +53129,7 @@
         <v>0</v>
       </c>
       <c r="G861" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="862">
@@ -53124,7 +53160,7 @@
         <v>0</v>
       </c>
       <c r="G862" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="863">
@@ -53155,7 +53191,7 @@
         <v>0</v>
       </c>
       <c r="G863" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="864">
@@ -53186,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="G864" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="865">
@@ -53217,7 +53253,7 @@
         <v>0</v>
       </c>
       <c r="G865" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="866">
@@ -53248,7 +53284,7 @@
         <v>0</v>
       </c>
       <c r="G866" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="867">
@@ -53279,7 +53315,7 @@
         <v>0</v>
       </c>
       <c r="G867" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="868">
@@ -53310,7 +53346,7 @@
         <v>0</v>
       </c>
       <c r="G868" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="869">
@@ -53341,7 +53377,7 @@
         <v>0</v>
       </c>
       <c r="G869" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="870">
@@ -53372,7 +53408,7 @@
         <v>0</v>
       </c>
       <c r="G870" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="871">
@@ -53403,7 +53439,7 @@
         <v>0</v>
       </c>
       <c r="G871" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="872">
@@ -53434,7 +53470,7 @@
         <v>0</v>
       </c>
       <c r="G872" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="873">
@@ -53465,7 +53501,7 @@
         <v>0</v>
       </c>
       <c r="G873" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="874">
@@ -53496,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="G874" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="875">
@@ -53527,7 +53563,7 @@
         <v>0</v>
       </c>
       <c r="G875" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="876">
@@ -53558,7 +53594,7 @@
         <v>0</v>
       </c>
       <c r="G876" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="877">
@@ -53589,7 +53625,7 @@
         <v>0</v>
       </c>
       <c r="G877" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="878">
@@ -53620,7 +53656,7 @@
         <v>0</v>
       </c>
       <c r="G878" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="879">
@@ -53651,7 +53687,7 @@
         <v>0</v>
       </c>
       <c r="G879" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="880">
@@ -53682,7 +53718,7 @@
         <v>0</v>
       </c>
       <c r="G880" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="881">
@@ -53713,7 +53749,7 @@
         <v>0</v>
       </c>
       <c r="G881" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="882">
@@ -53744,7 +53780,7 @@
         <v>0</v>
       </c>
       <c r="G882" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="883">
@@ -53775,7 +53811,7 @@
         <v>0</v>
       </c>
       <c r="G883" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="884">
@@ -53806,7 +53842,7 @@
         <v>0</v>
       </c>
       <c r="G884" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="885">
@@ -53837,7 +53873,7 @@
         <v>0</v>
       </c>
       <c r="G885" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="886">
@@ -53868,7 +53904,7 @@
         <v>0</v>
       </c>
       <c r="G886" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="887">
@@ -53899,7 +53935,7 @@
         <v>0</v>
       </c>
       <c r="G887" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="888">
@@ -53930,7 +53966,7 @@
         <v>0</v>
       </c>
       <c r="G888" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="889">
@@ -53961,7 +53997,7 @@
         <v>0</v>
       </c>
       <c r="G889" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="890">
@@ -53992,7 +54028,7 @@
         <v>0</v>
       </c>
       <c r="G890" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="891">
@@ -54023,7 +54059,7 @@
         <v>0</v>
       </c>
       <c r="G891" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="892">
@@ -54054,7 +54090,7 @@
         <v>0</v>
       </c>
       <c r="G892" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="893">
@@ -54085,7 +54121,7 @@
         <v>0</v>
       </c>
       <c r="G893" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="894">
@@ -54116,7 +54152,7 @@
         <v>0</v>
       </c>
       <c r="G894" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="895">
@@ -54147,7 +54183,7 @@
         <v>0</v>
       </c>
       <c r="G895" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="896">
@@ -54178,7 +54214,7 @@
         <v>0</v>
       </c>
       <c r="G896" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="897">
@@ -54209,7 +54245,7 @@
         <v>0</v>
       </c>
       <c r="G897" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="898">
@@ -54240,7 +54276,7 @@
         <v>0</v>
       </c>
       <c r="G898" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="899">
@@ -54271,7 +54307,7 @@
         <v>0</v>
       </c>
       <c r="G899" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="900">
@@ -54302,7 +54338,7 @@
         <v>0</v>
       </c>
       <c r="G900" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="901">
@@ -54333,7 +54369,7 @@
         <v>0</v>
       </c>
       <c r="G901" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="902">
@@ -54364,7 +54400,7 @@
         <v>0</v>
       </c>
       <c r="G902" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="903">
@@ -54395,7 +54431,7 @@
         <v>0</v>
       </c>
       <c r="G903" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="904">
@@ -54426,7 +54462,7 @@
         <v>0</v>
       </c>
       <c r="G904" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="905">
@@ -54457,7 +54493,7 @@
         <v>0</v>
       </c>
       <c r="G905" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="906">
@@ -54488,7 +54524,7 @@
         <v>0</v>
       </c>
       <c r="G906" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="907">
@@ -54519,7 +54555,7 @@
         <v>0</v>
       </c>
       <c r="G907" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="908">
@@ -54550,7 +54586,7 @@
         <v>0</v>
       </c>
       <c r="G908" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="909">
@@ -54581,7 +54617,7 @@
         <v>0</v>
       </c>
       <c r="G909" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="910">
@@ -54612,7 +54648,7 @@
         <v>0</v>
       </c>
       <c r="G910" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="911">
@@ -54637,13 +54673,13 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1204664</v>
+        <v>1305058</v>
       </c>
       <c r="F911" t="n">
         <v>0</v>
       </c>
       <c r="G911" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="912">
@@ -54699,13 +54735,13 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1205687</v>
+        <v>1310528</v>
       </c>
       <c r="F913" t="n">
         <v>0</v>
       </c>
       <c r="G913" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="914">
@@ -54823,13 +54859,13 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>1206520</v>
+        <v>1307314</v>
       </c>
       <c r="F917" t="n">
         <v>0</v>
       </c>
       <c r="G917" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="918">
@@ -54891,7 +54927,7 @@
         <v>0</v>
       </c>
       <c r="G919" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="920">
@@ -54922,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="G920" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="921">
@@ -54953,7 +54989,7 @@
         <v>0</v>
       </c>
       <c r="G921" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="922">
@@ -54984,7 +55020,7 @@
         <v>0</v>
       </c>
       <c r="G922" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="923">
@@ -55015,7 +55051,7 @@
         <v>0</v>
       </c>
       <c r="G923" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="924">
@@ -55046,7 +55082,7 @@
         <v>0</v>
       </c>
       <c r="G924" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="925">
@@ -55077,7 +55113,7 @@
         <v>0</v>
       </c>
       <c r="G925" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="926">
@@ -55108,7 +55144,7 @@
         <v>0</v>
       </c>
       <c r="G926" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="927">
@@ -55139,7 +55175,7 @@
         <v>0</v>
       </c>
       <c r="G927" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="928">
@@ -55170,7 +55206,7 @@
         <v>0</v>
       </c>
       <c r="G928" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="929">
@@ -55201,7 +55237,7 @@
         <v>0</v>
       </c>
       <c r="G929" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="930">
@@ -55232,7 +55268,7 @@
         <v>0</v>
       </c>
       <c r="G930" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="931">
@@ -55263,7 +55299,7 @@
         <v>0</v>
       </c>
       <c r="G931" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="932">
@@ -55294,7 +55330,7 @@
         <v>0</v>
       </c>
       <c r="G932" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="933">
@@ -55325,7 +55361,7 @@
         <v>0</v>
       </c>
       <c r="G933" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="934">
@@ -55356,7 +55392,7 @@
         <v>0</v>
       </c>
       <c r="G934" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="935">
@@ -55387,7 +55423,7 @@
         <v>0</v>
       </c>
       <c r="G935" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="936">
@@ -55418,7 +55454,7 @@
         <v>0</v>
       </c>
       <c r="G936" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="937">
@@ -55449,7 +55485,7 @@
         <v>0</v>
       </c>
       <c r="G937" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="938">
@@ -55480,7 +55516,7 @@
         <v>0</v>
       </c>
       <c r="G938" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="939">
@@ -55511,7 +55547,7 @@
         <v>0</v>
       </c>
       <c r="G939" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="940">
@@ -55542,7 +55578,7 @@
         <v>0</v>
       </c>
       <c r="G940" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="941">
@@ -55573,7 +55609,7 @@
         <v>0</v>
       </c>
       <c r="G941" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="942">
@@ -55604,7 +55640,7 @@
         <v>0</v>
       </c>
       <c r="G942" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="943">
@@ -55635,7 +55671,7 @@
         <v>0</v>
       </c>
       <c r="G943" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="944">
@@ -55666,7 +55702,7 @@
         <v>0</v>
       </c>
       <c r="G944" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="945">
@@ -55697,7 +55733,7 @@
         <v>0</v>
       </c>
       <c r="G945" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="946">
@@ -55728,7 +55764,7 @@
         <v>0</v>
       </c>
       <c r="G946" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="947">
@@ -55753,13 +55789,13 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1160154</v>
+        <v>1130154</v>
       </c>
       <c r="F947" t="n">
         <v>0</v>
       </c>
       <c r="G947" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="948">
@@ -55784,13 +55820,13 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1166447</v>
+        <v>1136447</v>
       </c>
       <c r="F948" t="n">
         <v>0</v>
       </c>
       <c r="G948" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="949">
@@ -55815,13 +55851,13 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1287024</v>
+        <v>1247024</v>
       </c>
       <c r="F949" t="n">
         <v>0</v>
       </c>
       <c r="G949" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="950">
@@ -55846,13 +55882,13 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>1288135</v>
+        <v>1248135</v>
       </c>
       <c r="F950" t="n">
         <v>0</v>
       </c>
       <c r="G950" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="951">
@@ -55877,13 +55913,13 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1289248</v>
+        <v>1249248</v>
       </c>
       <c r="F951" t="n">
         <v>0</v>
       </c>
       <c r="G951" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="952">
@@ -55908,13 +55944,13 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1290352</v>
+        <v>1250352</v>
       </c>
       <c r="F952" t="n">
         <v>0</v>
       </c>
       <c r="G952" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="953">
@@ -55939,13 +55975,13 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>1288967</v>
+        <v>1248967</v>
       </c>
       <c r="F953" t="n">
         <v>0</v>
       </c>
       <c r="G953" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="954">
@@ -55970,13 +56006,13 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>1294584</v>
+        <v>1254584</v>
       </c>
       <c r="F954" t="n">
         <v>0</v>
       </c>
       <c r="G954" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="955">
@@ -56001,13 +56037,13 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>1290074</v>
+        <v>1250074</v>
       </c>
       <c r="F955" t="n">
         <v>0</v>
       </c>
       <c r="G955" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="956">
@@ -56032,13 +56068,13 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1227184</v>
+        <v>1250355</v>
       </c>
       <c r="F956" t="n">
         <v>0</v>
       </c>
       <c r="G956" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="957">
@@ -56094,13 +56130,13 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>1228234</v>
+        <v>1255606</v>
       </c>
       <c r="F958" t="n">
         <v>0</v>
       </c>
       <c r="G958" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="959">
@@ -56218,13 +56254,13 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>1229069</v>
+        <v>1252569</v>
       </c>
       <c r="F962" t="n">
         <v>0</v>
       </c>
       <c r="G962" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="963">
@@ -56280,13 +56316,13 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>1293676</v>
+        <v>1253676</v>
       </c>
       <c r="F964" t="n">
         <v>0</v>
       </c>
       <c r="G964" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="965">
@@ -56311,13 +56347,13 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1190878</v>
+        <v>1150878</v>
       </c>
       <c r="F965" t="n">
         <v>0</v>
       </c>
       <c r="G965" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="966">
@@ -56342,13 +56378,13 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>1191890</v>
+        <v>1151890</v>
       </c>
       <c r="F966" t="n">
         <v>0</v>
       </c>
       <c r="G966" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="967">
@@ -56373,13 +56409,13 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>1192736</v>
+        <v>1152736</v>
       </c>
       <c r="F967" t="n">
         <v>0</v>
       </c>
       <c r="G967" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="968">
@@ -56404,13 +56440,13 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1287857</v>
+        <v>1247857</v>
       </c>
       <c r="F968" t="n">
         <v>0</v>
       </c>
       <c r="G968" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="969">
@@ -56435,13 +56471,13 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1291184</v>
+        <v>1251184</v>
       </c>
       <c r="F969" t="n">
         <v>0</v>
       </c>
       <c r="G969" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="970">
@@ -56466,13 +56502,13 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1288967</v>
+        <v>1248967</v>
       </c>
       <c r="F970" t="n">
         <v>0</v>
       </c>
       <c r="G970" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="971">
@@ -56497,13 +56533,13 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1324684</v>
+        <v>1284684</v>
       </c>
       <c r="F971" t="n">
         <v>0</v>
       </c>
       <c r="G971" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="972">
@@ -56528,13 +56564,13 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1333472</v>
+        <v>1293472</v>
       </c>
       <c r="F972" t="n">
         <v>0</v>
       </c>
       <c r="G972" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="973">
@@ -56559,13 +56595,13 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1342266</v>
+        <v>1302266</v>
       </c>
       <c r="F973" t="n">
         <v>0</v>
       </c>
       <c r="G973" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="974">
@@ -56590,13 +56626,13 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1363347</v>
+        <v>1323347</v>
       </c>
       <c r="F974" t="n">
         <v>0</v>
       </c>
       <c r="G974" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="975">
@@ -56621,13 +56657,13 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1385224</v>
+        <v>1345224</v>
       </c>
       <c r="F975" t="n">
         <v>0</v>
       </c>
       <c r="G975" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="976">
@@ -56652,13 +56688,13 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1417308</v>
+        <v>1377308</v>
       </c>
       <c r="F976" t="n">
         <v>0</v>
       </c>
       <c r="G976" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="977">
@@ -56683,13 +56719,13 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>1394763</v>
+        <v>1354763</v>
       </c>
       <c r="F977" t="n">
         <v>0</v>
       </c>
       <c r="G977" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="978">
@@ -56714,13 +56750,13 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1422238</v>
+        <v>1382238</v>
       </c>
       <c r="F978" t="n">
         <v>0</v>
       </c>
       <c r="G978" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="979">
@@ -56745,13 +56781,13 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>1329948</v>
+        <v>1289948</v>
       </c>
       <c r="F979" t="n">
         <v>0</v>
       </c>
       <c r="G979" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="980">
@@ -56776,13 +56812,13 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1340188</v>
+        <v>1300188</v>
       </c>
       <c r="F980" t="n">
         <v>0</v>
       </c>
       <c r="G980" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="981">
@@ -56807,13 +56843,13 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1353341</v>
+        <v>1313341</v>
       </c>
       <c r="F981" t="n">
         <v>0</v>
       </c>
       <c r="G981" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="982">
@@ -56838,13 +56874,13 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>1237131</v>
+        <v>1197131</v>
       </c>
       <c r="F982" t="n">
         <v>0</v>
       </c>
       <c r="G982" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="983">
@@ -56869,13 +56905,13 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1249425</v>
+        <v>1209425</v>
       </c>
       <c r="F983" t="n">
         <v>0</v>
       </c>
       <c r="G983" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="984">
@@ -56900,13 +56936,13 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1268840</v>
+        <v>1228840</v>
       </c>
       <c r="F984" t="n">
         <v>0</v>
       </c>
       <c r="G984" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="985">
@@ -56931,13 +56967,13 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1329948</v>
+        <v>1289948</v>
       </c>
       <c r="F985" t="n">
         <v>0</v>
       </c>
       <c r="G985" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="986">
@@ -56962,13 +56998,13 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1344571</v>
+        <v>1304571</v>
       </c>
       <c r="F986" t="n">
         <v>0</v>
       </c>
       <c r="G986" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="987">
@@ -56993,13 +57029,13 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1392827</v>
+        <v>1352827</v>
       </c>
       <c r="F987" t="n">
         <v>0</v>
       </c>
       <c r="G987" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="988">
@@ -57024,13 +57060,13 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>1329948</v>
+        <v>1289948</v>
       </c>
       <c r="F988" t="n">
         <v>0</v>
       </c>
       <c r="G988" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="989">
@@ -57055,13 +57091,13 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>1422238</v>
+        <v>1382238</v>
       </c>
       <c r="F989" t="n">
         <v>0</v>
       </c>
       <c r="G989" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="990">
@@ -57086,13 +57122,13 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1437468</v>
+        <v>1397468</v>
       </c>
       <c r="F990" t="n">
         <v>0</v>
       </c>
       <c r="G990" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="991">
@@ -57117,13 +57153,13 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1470972</v>
+        <v>1430972</v>
       </c>
       <c r="F991" t="n">
         <v>0</v>
       </c>
       <c r="G991" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="992">
@@ -57148,13 +57184,13 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>1146200</v>
+        <v>1116200</v>
       </c>
       <c r="F992" t="n">
         <v>0</v>
       </c>
       <c r="G992" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="993">
@@ -57179,13 +57215,13 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>1152576</v>
+        <v>1122576</v>
       </c>
       <c r="F993" t="n">
         <v>0</v>
       </c>
       <c r="G993" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="994">
@@ -57210,13 +57246,13 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1237185</v>
+        <v>1197185</v>
       </c>
       <c r="F994" t="n">
         <v>0</v>
       </c>
       <c r="G994" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="995">
@@ -57241,13 +57277,13 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>1240453</v>
+        <v>1200453</v>
       </c>
       <c r="F995" t="n">
         <v>0</v>
       </c>
       <c r="G995" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="996">
@@ -57272,13 +57308,13 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>1238273</v>
+        <v>1198273</v>
       </c>
       <c r="F996" t="n">
         <v>0</v>
       </c>
       <c r="G996" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="997">
@@ -57303,13 +57339,13 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1242409</v>
+        <v>1202409</v>
       </c>
       <c r="F997" t="n">
         <v>0</v>
       </c>
       <c r="G997" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="998">
@@ -57334,13 +57370,13 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>1239359</v>
+        <v>1199359</v>
       </c>
       <c r="F998" t="n">
         <v>0</v>
       </c>
       <c r="G998" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="999">
@@ -57365,13 +57401,13 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>1242633</v>
+        <v>1202633</v>
       </c>
       <c r="F999" t="n">
         <v>0</v>
       </c>
       <c r="G999" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1000">
@@ -57396,13 +57432,13 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>1240450</v>
+        <v>1200450</v>
       </c>
       <c r="F1000" t="n">
         <v>0</v>
       </c>
       <c r="G1000" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1001">
@@ -57427,13 +57463,13 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1243717</v>
+        <v>1203717</v>
       </c>
       <c r="F1001" t="n">
         <v>0</v>
       </c>
       <c r="G1001" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1002">
@@ -57458,13 +57494,13 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>1238366</v>
+        <v>1198366</v>
       </c>
       <c r="F1002" t="n">
         <v>0</v>
       </c>
       <c r="G1002" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1003">
@@ -57489,13 +57525,13 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>1243888</v>
+        <v>1203888</v>
       </c>
       <c r="F1003" t="n">
         <v>0</v>
       </c>
       <c r="G1003" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1004">
@@ -57520,13 +57556,13 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>1239459</v>
+        <v>1199459</v>
       </c>
       <c r="F1004" t="n">
         <v>0</v>
       </c>
       <c r="G1004" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1005">
@@ -57551,13 +57587,13 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>1244888</v>
+        <v>1204888</v>
       </c>
       <c r="F1005" t="n">
         <v>0</v>
       </c>
       <c r="G1005" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1006">
@@ -57582,13 +57618,13 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>1210279</v>
+        <v>1170279</v>
       </c>
       <c r="F1006" t="n">
         <v>0</v>
       </c>
       <c r="G1006" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1007">
@@ -57613,13 +57649,13 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>1213460</v>
+        <v>1173460</v>
       </c>
       <c r="F1007" t="n">
         <v>0</v>
       </c>
       <c r="G1007" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1008">
@@ -57644,13 +57680,13 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>1211339</v>
+        <v>1171339</v>
       </c>
       <c r="F1008" t="n">
         <v>0</v>
       </c>
       <c r="G1008" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1009">
@@ -57675,13 +57711,13 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>1214517</v>
+        <v>1174517</v>
       </c>
       <c r="F1009" t="n">
         <v>0</v>
       </c>
       <c r="G1009" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1010">
@@ -57706,13 +57742,13 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>1212253</v>
+        <v>1172253</v>
       </c>
       <c r="F1010" t="n">
         <v>0</v>
       </c>
       <c r="G1010" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1011">
@@ -57737,13 +57773,13 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>1215376</v>
+        <v>1175376</v>
       </c>
       <c r="F1011" t="n">
         <v>0</v>
       </c>
       <c r="G1011" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1012">
@@ -57768,13 +57804,13 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>1239140</v>
+        <v>1199140</v>
       </c>
       <c r="F1012" t="n">
         <v>0</v>
       </c>
       <c r="G1012" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1013">
@@ -57799,13 +57835,13 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>1242409</v>
+        <v>1202409</v>
       </c>
       <c r="F1013" t="n">
         <v>0</v>
       </c>
       <c r="G1013" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1014">
@@ -57830,13 +57866,13 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>1240225</v>
+        <v>1200225</v>
       </c>
       <c r="F1014" t="n">
         <v>0</v>
       </c>
       <c r="G1014" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1015">
@@ -57861,13 +57897,13 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>1243496</v>
+        <v>1203496</v>
       </c>
       <c r="F1015" t="n">
         <v>0</v>
       </c>
       <c r="G1015" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1016">
@@ -57892,13 +57928,13 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>1274223</v>
+        <v>1234223</v>
       </c>
       <c r="F1016" t="n">
         <v>0</v>
       </c>
       <c r="G1016" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1017">
@@ -57923,13 +57959,13 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>1282616</v>
+        <v>1242616</v>
       </c>
       <c r="F1017" t="n">
         <v>0</v>
       </c>
       <c r="G1017" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1018">
@@ -57954,13 +57990,13 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>1291012</v>
+        <v>1251012</v>
       </c>
       <c r="F1018" t="n">
         <v>0</v>
       </c>
       <c r="G1018" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1019">
@@ -57985,13 +58021,13 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>1311147</v>
+        <v>1271147</v>
       </c>
       <c r="F1019" t="n">
         <v>0</v>
       </c>
       <c r="G1019" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1020">
@@ -58016,13 +58052,13 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>1332035</v>
+        <v>1292035</v>
       </c>
       <c r="F1020" t="n">
         <v>0</v>
       </c>
       <c r="G1020" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1021">
@@ -58047,13 +58083,13 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>1362671</v>
+        <v>1322671</v>
       </c>
       <c r="F1021" t="n">
         <v>0</v>
       </c>
       <c r="G1021" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1022">
@@ -58078,13 +58114,13 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>1291711</v>
+        <v>1251711</v>
       </c>
       <c r="F1022" t="n">
         <v>0</v>
       </c>
       <c r="G1022" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1023">
@@ -58109,13 +58145,13 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>1316751</v>
+        <v>1276751</v>
       </c>
       <c r="F1023" t="n">
         <v>0</v>
       </c>
       <c r="G1023" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1024">
@@ -58140,13 +58176,13 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>1280599</v>
+        <v>1240599</v>
       </c>
       <c r="F1024" t="n">
         <v>0</v>
       </c>
       <c r="G1024" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1025">
@@ -58171,13 +58207,13 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>1290388</v>
+        <v>1250388</v>
       </c>
       <c r="F1025" t="n">
         <v>0</v>
       </c>
       <c r="G1025" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1026">
@@ -58202,13 +58238,13 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>1301451</v>
+        <v>1261451</v>
       </c>
       <c r="F1026" t="n">
         <v>0</v>
       </c>
       <c r="G1026" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1027">
@@ -58233,13 +58269,13 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>1223694</v>
+        <v>1183694</v>
       </c>
       <c r="F1027" t="n">
         <v>0</v>
       </c>
       <c r="G1027" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1028">
@@ -58264,13 +58300,13 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>1235922</v>
+        <v>1195922</v>
       </c>
       <c r="F1028" t="n">
         <v>0</v>
       </c>
       <c r="G1028" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1029">
@@ -58295,13 +58331,13 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>1255081</v>
+        <v>1215081</v>
       </c>
       <c r="F1029" t="n">
         <v>0</v>
       </c>
       <c r="G1029" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1030">
@@ -58326,13 +58362,13 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>1280599</v>
+        <v>1240599</v>
       </c>
       <c r="F1030" t="n">
         <v>0</v>
       </c>
       <c r="G1030" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1031">
@@ -58357,13 +58393,13 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>1294584</v>
+        <v>1254584</v>
       </c>
       <c r="F1031" t="n">
         <v>0</v>
       </c>
       <c r="G1031" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1032">
@@ -58388,13 +58424,13 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>1340723</v>
+        <v>1300723</v>
       </c>
       <c r="F1032" t="n">
         <v>0</v>
       </c>
       <c r="G1032" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1033">
@@ -58419,13 +58455,13 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>1280362</v>
+        <v>1240362</v>
       </c>
       <c r="F1033" t="n">
         <v>0</v>
       </c>
       <c r="G1033" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1034">
@@ -58450,13 +58486,13 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>1322548</v>
+        <v>1282548</v>
       </c>
       <c r="F1034" t="n">
         <v>0</v>
       </c>
       <c r="G1034" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1035">
@@ -58481,13 +58517,13 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>1336525</v>
+        <v>1296525</v>
       </c>
       <c r="F1035" t="n">
         <v>0</v>
       </c>
       <c r="G1035" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1036">
@@ -58512,13 +58548,13 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>1367287</v>
+        <v>1327287</v>
       </c>
       <c r="F1036" t="n">
         <v>0</v>
       </c>
       <c r="G1036" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1037">
@@ -58543,13 +58579,13 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>1177902</v>
+        <v>1147902</v>
       </c>
       <c r="F1037" t="n">
         <v>0</v>
       </c>
       <c r="G1037" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="1038">
@@ -58574,13 +58610,13 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>1184085</v>
+        <v>1154085</v>
       </c>
       <c r="F1038" t="n">
         <v>0</v>
       </c>
       <c r="G1038" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="1039">
@@ -58605,13 +58641,13 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>1341678</v>
+        <v>1301678</v>
       </c>
       <c r="F1039" t="n">
         <v>0</v>
       </c>
       <c r="G1039" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1040">
@@ -58636,13 +58672,13 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>1342803</v>
+        <v>1302803</v>
       </c>
       <c r="F1040" t="n">
         <v>0</v>
       </c>
       <c r="G1040" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1041">
@@ -58667,13 +58703,13 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>1343930</v>
+        <v>1303930</v>
       </c>
       <c r="F1041" t="n">
         <v>0</v>
       </c>
       <c r="G1041" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1042">
@@ -58698,13 +58734,13 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1345066</v>
+        <v>1305066</v>
       </c>
       <c r="F1042" t="n">
         <v>0</v>
       </c>
       <c r="G1042" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1043">
@@ -58729,13 +58765,13 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>1343782</v>
+        <v>1303782</v>
       </c>
       <c r="F1043" t="n">
         <v>0</v>
       </c>
       <c r="G1043" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1044">
@@ -58760,13 +58796,13 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>1349501</v>
+        <v>1309501</v>
       </c>
       <c r="F1044" t="n">
         <v>0</v>
       </c>
       <c r="G1044" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1045">
@@ -58791,13 +58827,13 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>1344910</v>
+        <v>1304910</v>
       </c>
       <c r="F1045" t="n">
         <v>0</v>
       </c>
       <c r="G1045" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1046">
@@ -58822,13 +58858,13 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>1244664</v>
+        <v>1305058</v>
       </c>
       <c r="F1046" t="n">
         <v>0</v>
       </c>
       <c r="G1046" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1047">
@@ -58884,13 +58920,13 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1245687</v>
+        <v>1310528</v>
       </c>
       <c r="F1048" t="n">
         <v>0</v>
       </c>
       <c r="G1048" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1049">
@@ -59008,13 +59044,13 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>1246520</v>
+        <v>1307314</v>
       </c>
       <c r="F1052" t="n">
         <v>0</v>
       </c>
       <c r="G1052" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1053">
@@ -59070,13 +59106,13 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>1348439</v>
+        <v>1308439</v>
       </c>
       <c r="F1054" t="n">
         <v>0</v>
       </c>
       <c r="G1054" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1055">
@@ -59101,13 +59137,13 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>1241580</v>
+        <v>1201580</v>
       </c>
       <c r="F1055" t="n">
         <v>0</v>
       </c>
       <c r="G1055" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1056">
@@ -59132,13 +59168,13 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>1242604</v>
+        <v>1202604</v>
       </c>
       <c r="F1056" t="n">
         <v>0</v>
       </c>
       <c r="G1056" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1057">
@@ -59163,13 +59199,13 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>1243461</v>
+        <v>1203461</v>
       </c>
       <c r="F1057" t="n">
         <v>0</v>
       </c>
       <c r="G1057" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1058">
@@ -59194,13 +59230,13 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>1340547</v>
+        <v>1300547</v>
       </c>
       <c r="F1058" t="n">
         <v>0</v>
       </c>
       <c r="G1058" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1059">
@@ -59225,13 +59261,13 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>1343919</v>
+        <v>1303919</v>
       </c>
       <c r="F1059" t="n">
         <v>0</v>
       </c>
       <c r="G1059" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1060">
@@ -59256,13 +59292,13 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>1342651</v>
+        <v>1302651</v>
       </c>
       <c r="F1060" t="n">
         <v>0</v>
       </c>
       <c r="G1060" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1061">
@@ -59287,13 +59323,13 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>1380010</v>
+        <v>1340010</v>
       </c>
       <c r="F1061" t="n">
         <v>0</v>
       </c>
       <c r="G1061" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1062">
@@ -59318,13 +59354,13 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>1389233</v>
+        <v>1349233</v>
       </c>
       <c r="F1062" t="n">
         <v>0</v>
       </c>
       <c r="G1062" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1063">
@@ -59349,13 +59385,13 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>1398456</v>
+        <v>1358456</v>
       </c>
       <c r="F1063" t="n">
         <v>0</v>
       </c>
       <c r="G1063" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1064">
@@ -59380,13 +59416,13 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>1420532</v>
+        <v>1380532</v>
       </c>
       <c r="F1064" t="n">
         <v>0</v>
       </c>
       <c r="G1064" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1065">
@@ -59411,13 +59447,13 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>1443536</v>
+        <v>1403536</v>
       </c>
       <c r="F1065" t="n">
         <v>0</v>
       </c>
       <c r="G1065" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1066">
@@ -59442,13 +59478,13 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>1477214</v>
+        <v>1437214</v>
       </c>
       <c r="F1066" t="n">
         <v>0</v>
       </c>
       <c r="G1066" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1067">
@@ -59473,13 +59509,13 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>1451961</v>
+        <v>1411961</v>
       </c>
       <c r="F1067" t="n">
         <v>0</v>
       </c>
       <c r="G1067" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1068">
@@ -59504,13 +59540,13 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>1480692</v>
+        <v>1440692</v>
       </c>
       <c r="F1068" t="n">
         <v>0</v>
       </c>
       <c r="G1068" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1069">
@@ -59535,13 +59571,13 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>1385461</v>
+        <v>1345461</v>
       </c>
       <c r="F1069" t="n">
         <v>0</v>
       </c>
       <c r="G1069" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1070">
@@ -59566,13 +59602,13 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>1396202</v>
+        <v>1356202</v>
       </c>
       <c r="F1070" t="n">
         <v>0</v>
       </c>
       <c r="G1070" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1071">
@@ -59597,13 +59633,13 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>1410015</v>
+        <v>1370015</v>
       </c>
       <c r="F1071" t="n">
         <v>0</v>
       </c>
       <c r="G1071" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1072">
@@ -59628,13 +59664,13 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>1254372</v>
+        <v>1214372</v>
       </c>
       <c r="F1072" t="n">
         <v>0</v>
       </c>
       <c r="G1072" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1073">
@@ -59659,13 +59695,13 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>1266767</v>
+        <v>1226767</v>
       </c>
       <c r="F1073" t="n">
         <v>0</v>
       </c>
       <c r="G1073" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1074">
@@ -59690,13 +59726,13 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>1286496</v>
+        <v>1246496</v>
       </c>
       <c r="F1074" t="n">
         <v>0</v>
       </c>
       <c r="G1074" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1075">
@@ -59721,13 +59757,13 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>1385578</v>
+        <v>1345578</v>
       </c>
       <c r="F1075" t="n">
         <v>0</v>
       </c>
       <c r="G1075" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1076">
@@ -59752,13 +59788,13 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>1400993</v>
+        <v>1360993</v>
       </c>
       <c r="F1076" t="n">
         <v>0</v>
       </c>
       <c r="G1076" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1077">
@@ -59783,13 +59819,13 @@
         </is>
       </c>
       <c r="E1077" t="n">
-        <v>1451445</v>
+        <v>1411445</v>
       </c>
       <c r="F1077" t="n">
         <v>0</v>
       </c>
       <c r="G1077" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1078">
@@ -59814,13 +59850,13 @@
         </is>
       </c>
       <c r="E1078" t="n">
-        <v>1385578</v>
+        <v>1345578</v>
       </c>
       <c r="F1078" t="n">
         <v>0</v>
       </c>
       <c r="G1078" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1079">
@@ -59845,13 +59881,13 @@
         </is>
       </c>
       <c r="E1079" t="n">
-        <v>1480663</v>
+        <v>1440663</v>
       </c>
       <c r="F1079" t="n">
         <v>0</v>
       </c>
       <c r="G1079" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1080">
@@ -59876,13 +59912,13 @@
         </is>
       </c>
       <c r="E1080" t="n">
-        <v>1496650</v>
+        <v>1456650</v>
       </c>
       <c r="F1080" t="n">
         <v>0</v>
       </c>
       <c r="G1080" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1081">
@@ -59907,13 +59943,3888 @@
         </is>
       </c>
       <c r="E1081" t="n">
-        <v>1531766</v>
+        <v>1491766</v>
       </c>
       <c r="F1081" t="n">
         <v>0</v>
       </c>
       <c r="G1081" t="n">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>6 HS - MENOR - - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1082" t="n">
+        <v>1130154</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>6 HS - MENOR - - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>1136447</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1084" t="n">
+        <v>1247024</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1085" t="n">
+        <v>1248135</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA C - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1086" t="n">
+        <v>1249248</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA D - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1087" t="n">
+        <v>1250352</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1088" t="n">
+        <v>1248967</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1089" t="n">
+        <v>1254584</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1090" t="n">
+        <v>1250074</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1091" t="n">
+        <v>1250355</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA B - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1092" t="n">
+        <v>1255606</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA C - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1093" t="n">
+        <v>1252569</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA D - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1094" t="n">
+        <v>1253676</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1095" t="n">
+        <v>1150878</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1096" t="n">
+        <v>1151890</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA C - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1097" t="n">
+        <v>1152736</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1098" t="n">
+        <v>1247857</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1099" t="n">
+        <v>1251184</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1100" t="n">
+        <v>1248967</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO A</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1101" t="n">
+        <v>1284684</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO B</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1102" t="n">
+        <v>1293472</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO C</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1103" t="n">
+        <v>1302266</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO D</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1104" t="n">
+        <v>1323347</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO E</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1105" t="n">
+        <v>1345224</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO F</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1106" t="n">
+        <v>1377308</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>AUXILIAR ESPECIALIZADO A</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1107" t="n">
+        <v>1354763</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>AUXILIAR ESPECIALIZADO B</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1108" t="n">
+        <v>1382238</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>CAJEROS A</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1109" t="n">
+        <v>1289948</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>CAJEROS B</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1110" t="n">
+        <v>1300188</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>CAJEROS C</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1111" t="n">
+        <v>1313341</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>MAESTRANZA A</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1112" t="n">
+        <v>1197131</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>MAESTRANZA B</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1113" t="n">
+        <v>1209425</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>MAESTRANZA C</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1114" t="n">
+        <v>1228840</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR A</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1115" t="n">
+        <v>1289948</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR B</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1116" t="n">
+        <v>1304571</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR C</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1117" t="n">
+        <v>1352827</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>VENDEDORES A</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1118" t="n">
+        <v>1289948</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>VENDEDORES B</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1119" t="n">
+        <v>1382238</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>VENDEDORES C</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1120" t="n">
+        <v>1397468</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>DESDE 25.001 A 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>VENDEDORES D</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1121" t="n">
+        <v>1430972</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>6 HS - MENOR - - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1122" t="n">
+        <v>1116200</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>6 HS - MENOR - - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1123" t="n">
+        <v>1122576</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1124" t="n">
+        <v>1197185</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>1200453</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>1198273</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA B - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1127" t="n">
+        <v>1202409</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA C - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1128" t="n">
+        <v>1199359</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA C - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1129" t="n">
+        <v>1202633</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA D - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1130" t="n">
+        <v>1200450</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA D - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1131" t="n">
+        <v>1203717</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1132" t="n">
+        <v>1198366</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1133" t="n">
+        <v>1203888</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1134" t="n">
+        <v>1199459</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA B - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1135" t="n">
+        <v>1204888</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1136" t="n">
+        <v>1170279</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>1173460</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>1171339</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA B - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1139" t="n">
+        <v>1174517</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA C - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1140" t="n">
+        <v>1172253</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA C - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1141" t="n">
+        <v>1175376</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>1199140</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>1202409</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>1200225</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA B - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>1203496</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO A</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>1234223</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO B</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>1242616</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO C</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>1251012</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO D</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>1271147</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO E</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>1292035</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO F</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>1322671</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>AUXILIAR ESPECIALIZADO A</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>1251711</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>AUXILIAR ESPECIALIZADO B</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>1276751</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>CAJEROS A</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>1240599</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>CAJEROS B</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>1250388</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>CAJEROS C</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>1261451</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>MAESTRANZA A</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>1183694</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>MAESTRANZA B</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>1195922</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>MAESTRANZA C</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>1215081</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR A</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>1240599</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR B</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>1254584</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR C</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>1300723</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>VENDEDORES A</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>1240362</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>VENDEDORES B</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>1282548</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>VENDEDORES C</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>1296525</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>HASTA 25.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>VENDEDORES D</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>1327287</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>6 HS - MENOR - - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>1147902</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>6 HS - MENOR - - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>1154085</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>1301678</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>1302803</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA C - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>1303930</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - ADMINISTRATIVOS - LETRA D - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>1305066</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>1303782</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>1309501</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - AUXILIAR ESPECIALIZADO - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>1304910</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>1305058</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA B - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>1310528</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA C - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>1307314</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - DESCONOCIDO - LETRA D - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>1308439</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>1201580</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>1202604</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - MAESTRANZA Y SERVICIOS - LETRA C - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>1203461</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA A - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>1300547</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA A - 17 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>1303919</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>8 HS - MENORES - PERSONAL AUXILIAR - LETRA B - 16 AÑOS</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>1302651</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO A</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>1340010</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO B</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>1349233</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO C</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>1358456</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO D</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>1380532</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO E</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>1403536</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO F</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>1437214</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>AUXILIAR  ESPECIALIZADO A</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>1411961</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>AUXILIAR  ESPECIALIZADO B</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>1440692</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>CAJEROS A</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>1345461</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>CAJEROS B</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>1356202</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>CAJEROS C</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>1370015</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>MAESTRANZA A</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>1214372</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>MAESTRANZA B</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>1226767</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>MAESTRANZA C</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>1246496</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR A</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>1345578</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR B</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>1360993</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR C</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>1411445</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>VENDEDORES A</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>1345578</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>VENDEDORES B</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>1440663</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>VENDEDORES C</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1456650</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>CEREALES</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>MAS DE 75.000 Tn.</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>VENDEDORES D</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>1491766</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -74879,7 +78790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88437,6 +92348,1091 @@
         <v>0</v>
       </c>
       <c r="G437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>A2 - ADMINISTRATIVO 1º</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F438" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G438" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>A2 - ADMINISTRATIVO 1º</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F439" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G439" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>A2 - ADMINISTRATIVO 1º</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F440" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G440" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>A2 - ADMINISTRATIVO 1º</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F441" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G441" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>A2 - ADMINISTRATIVO 1º</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>1223120</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>A6 - MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>1091538</v>
+      </c>
+      <c r="F443" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G443" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>A6 - MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>1091538</v>
+      </c>
+      <c r="F444" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G444" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>A6 - MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>1091538</v>
+      </c>
+      <c r="F445" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G445" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>A6 - MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>1091538</v>
+      </c>
+      <c r="F446" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G446" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>A6 - MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>1191538</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>B2 - VENDEDOR 1º</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F448" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G448" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>B2 - VENDEDOR 1º</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F449" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G449" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>B2 - VENDEDOR 1º</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F450" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G450" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>B2 - VENDEDOR 1º</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F451" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G451" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>B2 - VENDEDOR 1º</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>1223120</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>B4 - PROMOTOR</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>1100561</v>
+      </c>
+      <c r="F453" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G453" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>B4 - PROMOTOR</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>1100561</v>
+      </c>
+      <c r="F454" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G454" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>B4 - PROMOTOR</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>1100561</v>
+      </c>
+      <c r="F455" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G455" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>B4 - PROMOTOR</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>1100561</v>
+      </c>
+      <c r="F456" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G456" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>VENDEDOR</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>B4 - PROMOTOR</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>1200561</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>C2 - AUXILIAR 1º</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>1117480</v>
+      </c>
+      <c r="F458" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G458" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>C2 - AUXILIAR 1º</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>1117480</v>
+      </c>
+      <c r="F459" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G459" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>C2 - AUXILIAR 1º</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>1117480</v>
+      </c>
+      <c r="F460" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G460" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>C2 - AUXILIAR 1º</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>1117480</v>
+      </c>
+      <c r="F461" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G461" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>C2 - AUXILIAR 1º</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>1217480</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>C4 - GUIA / CONDUCTOR</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F463" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G463" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>C4 - GUIA / CONDUCTOR</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F464" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G464" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>C4 - GUIA / CONDUCTOR</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F465" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G465" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>C4 - GUIA / CONDUCTOR</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>1123120</v>
+      </c>
+      <c r="F466" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G466" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>OPERATIVO</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>C4 - GUIA / CONDUCTOR</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>1223120</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONTACTOS</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>E2 - SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>1135522</v>
+      </c>
+      <c r="F468" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G468" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONTACTOS</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>E2 - SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>1135522</v>
+      </c>
+      <c r="F469" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G469" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONTACTOS</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>E2 - SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>1135522</v>
+      </c>
+      <c r="F470" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G470" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONTACTOS</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>E2 - SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>1135522</v>
+      </c>
+      <c r="F471" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G471" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONTACTOS</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>E2 - SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>1235522</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0</v>
+      </c>
+      <c r="G472" t="n">
         <v>0</v>
       </c>
     </row>

--- a/maestro.xlsx
+++ b/maestro.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indice" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_Agua_Potable" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAW_Agua_Potable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_CALL_CENTER" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_CEREALES" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_Funebres" sheetId="5" state="visible" r:id="rId5"/>
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adicionales" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglasConexiones" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="call center base 48hs O.S." sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_AGUA_POTABLE" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11843,13 +11844,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11857,25 +11858,1316 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rama</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Agrupamiento</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Basico</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>No_rem</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Suma_fija</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGRUPAMIENTO: PERSONAL SUPERVISIÓN y JEFATURA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F2" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>180000</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F5" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3508680</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F7" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F8" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F9" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1929774</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F12" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F13" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F14" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F15" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2222164</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F17" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F18" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F19" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F20" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1286516</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F22" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F23" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F24" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F25" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1578906</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F27" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F30" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1754340</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F32" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F33" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F34" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F35" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1988252</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F37" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F38" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F39" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F40" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1169560</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:E113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AGRUPAMIENTO: PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Categoría: OPERADOR DE 1ra.</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -12008,9 +13300,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -12018,7 +13307,6 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
@@ -12026,9 +13314,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
@@ -12161,8 +13446,6 @@
         </is>
       </c>
     </row>
-    <row r="29"/>
-    <row r="30"/>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
@@ -12170,7 +13453,6 @@
         </is>
       </c>
     </row>
-    <row r="32"/>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
@@ -12178,9 +13460,6 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
@@ -12313,8 +13592,6 @@
         </is>
       </c>
     </row>
-    <row r="43"/>
-    <row r="44"/>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
@@ -12322,7 +13599,6 @@
         </is>
       </c>
     </row>
-    <row r="46"/>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
@@ -12330,9 +13606,6 @@
         </is>
       </c>
     </row>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
@@ -12465,8 +13738,6 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
-    <row r="58"/>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
@@ -12474,7 +13745,6 @@
         </is>
       </c>
     </row>
-    <row r="60"/>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
@@ -12482,9 +13752,6 @@
         </is>
       </c>
     </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
@@ -12617,8 +13884,6 @@
         </is>
       </c>
     </row>
-    <row r="71"/>
-    <row r="72"/>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
@@ -12626,7 +13891,6 @@
         </is>
       </c>
     </row>
-    <row r="74"/>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
@@ -12634,9 +13898,6 @@
         </is>
       </c>
     </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
@@ -13072,7 +14333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G430"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26413,6 +27674,161 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F431" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G431" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F432" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G432" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F433" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G433" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F434" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G434" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>512689</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26427,7 +27843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1206"/>
+  <dimension ref="A1:G1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78790,7 +80206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O472"/>
+  <dimension ref="A1:G472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
